--- a/chai.xlsx
+++ b/chai.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patut\PycharmProjects\Sii\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA1E520-B353-4B45-88BA-CB35A8AA350E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7989385-62E7-4CBE-B2A0-B97C997967E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{CBA9FE9B-7C86-4BAF-B054-FFD982B589BC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="88">
   <si>
     <t>ID</t>
   </si>
@@ -270,13 +270,43 @@
   </si>
   <si>
     <t>плотный, маслянистый, сладковатый</t>
+  </si>
+  <si>
+    <t>Растворимый</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Сублимированный чай Lord Nelson персик</t>
+  </si>
+  <si>
+    <t>Сироп глюкозы, экстракт сока персика, экстракт черного чая</t>
+  </si>
+  <si>
+    <t>Персик</t>
+  </si>
+  <si>
+    <t>Шиповник "Бабушкин хуторок"</t>
+  </si>
+  <si>
+    <t>Экстракт шиповника</t>
+  </si>
+  <si>
+    <t>Барбарис, земляника</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,6 +349,12 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Liberation Sans"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -340,7 +376,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -374,11 +410,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -412,6 +463,22 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -729,7 +796,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1448,11 +1515,69 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="18">
-      <c r="A23" s="13"/>
-    </row>
-    <row r="24" spans="1:10" ht="18">
-      <c r="A24" s="2"/>
+    <row r="23" spans="1:10" ht="36">
+      <c r="A23" s="17">
+        <v>21</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="J23" s="22">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="36">
+      <c r="A24" s="17">
+        <v>22</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="J24" s="22">
+        <v>208</v>
+      </c>
     </row>
     <row r="25" spans="1:10" ht="18">
       <c r="A25" s="13"/>
